--- a/data/fact_data/Jalna/Jalna_Dec_19.xlsx
+++ b/data/fact_data/Jalna/Jalna_Dec_19.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nitin.karmuse/Desktop/win_medicare/data/fact_data/Jalna/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8305DF4-C5B3-A742-9F0D-D400A5DA8BAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEE7A19E-C75F-BD4B-B484-66AF87E277D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{4B3CD01D-78A7-A449-8E55-9508C7361918}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" activeTab="3" xr2:uid="{4B3CD01D-78A7-A449-8E55-9508C7361918}"/>
   </bookViews>
   <sheets>
     <sheet name="Ram_Dec_19" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,9 @@
     <sheet name="Shrikrupa_Dec_19" sheetId="3" r:id="rId3"/>
     <sheet name="Shivkrupa_Dec_19" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Shivkrupa_Dec_19!$A$1:$I$71</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -700,7 +703,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C036F7B9-9060-7B40-AC4F-EDD0A153513B}">
   <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -2715,8 +2718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E708524-899B-274C-B666-B9DBE87F8176}">
   <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4744,7 +4747,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55088DE2-8274-1E47-9CD2-237A7D19E92F}">
   <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A29" workbookViewId="0">
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -6759,8 +6762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD3CB022-2ECF-4947-816A-2532A1E18F85}">
   <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7213,7 +7216,9 @@
       <c r="C16" s="6">
         <v>0</v>
       </c>
-      <c r="D16" s="4"/>
+      <c r="D16" s="4">
+        <v>100</v>
+      </c>
       <c r="E16" s="4">
         <v>0</v>
       </c>
@@ -8795,6 +8800,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I71" xr:uid="{AD3CB022-2ECF-4947-816A-2532A1E18F85}"/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
